--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3177,28 +3177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>453.2858516764688</v>
+        <v>514.2638547448597</v>
       </c>
       <c r="AB2" t="n">
-        <v>620.2056998241646</v>
+        <v>703.6384937819705</v>
       </c>
       <c r="AC2" t="n">
-        <v>561.0141382971125</v>
+        <v>636.4842234982468</v>
       </c>
       <c r="AD2" t="n">
-        <v>453285.8516764689</v>
+        <v>514263.8547448597</v>
       </c>
       <c r="AE2" t="n">
-        <v>620205.6998241646</v>
+        <v>703638.4937819705</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.584532462415484e-06</v>
+        <v>2.931799908930986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.58912037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>561014.1382971124</v>
+        <v>636484.2234982469</v>
       </c>
     </row>
     <row r="3">
@@ -3283,28 +3283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>277.3439680255296</v>
+        <v>326.0410296256707</v>
       </c>
       <c r="AB3" t="n">
-        <v>379.474252604858</v>
+        <v>446.103720648905</v>
       </c>
       <c r="AC3" t="n">
-        <v>343.2577625317082</v>
+        <v>403.5282076606769</v>
       </c>
       <c r="AD3" t="n">
-        <v>277343.9680255296</v>
+        <v>326041.0296256707</v>
       </c>
       <c r="AE3" t="n">
-        <v>379474.252604858</v>
+        <v>446103.720648905</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.197317082463341e-06</v>
+        <v>4.065611891875097e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.91550925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>343257.7625317082</v>
+        <v>403528.2076606769</v>
       </c>
     </row>
     <row r="4">
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>246.025787624385</v>
+        <v>282.5273381194019</v>
       </c>
       <c r="AB4" t="n">
-        <v>336.6233365192466</v>
+        <v>386.5663682414436</v>
       </c>
       <c r="AC4" t="n">
-        <v>304.49647773577</v>
+        <v>349.6730166057849</v>
       </c>
       <c r="AD4" t="n">
-        <v>246025.787624385</v>
+        <v>282527.3381194019</v>
       </c>
       <c r="AE4" t="n">
-        <v>336623.3365192466</v>
+        <v>386566.3682414436</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.434962814869627e-06</v>
+        <v>4.50531871590853e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.241319444444446</v>
       </c>
       <c r="AH4" t="n">
-        <v>304496.4777357701</v>
+        <v>349673.0166057849</v>
       </c>
     </row>
     <row r="5">
@@ -3495,28 +3495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>218.6563669927794</v>
+        <v>255.2431688338135</v>
       </c>
       <c r="AB5" t="n">
-        <v>299.1752877574822</v>
+        <v>349.23496413214</v>
       </c>
       <c r="AC5" t="n">
-        <v>270.62241818915</v>
+        <v>315.9044693098234</v>
       </c>
       <c r="AD5" t="n">
-        <v>218656.3669927794</v>
+        <v>255243.1688338135</v>
       </c>
       <c r="AE5" t="n">
-        <v>299175.2877574823</v>
+        <v>349234.96413214</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.561584662567209e-06</v>
+        <v>4.739602285575847e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.931712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>270622.41818915</v>
+        <v>315904.4693098234</v>
       </c>
     </row>
     <row r="6">
@@ -3601,28 +3601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>209.1205201522038</v>
+        <v>245.7073219932378</v>
       </c>
       <c r="AB6" t="n">
-        <v>286.1279214183415</v>
+        <v>336.1875977929992</v>
       </c>
       <c r="AC6" t="n">
-        <v>258.8202741813191</v>
+        <v>304.1023253019925</v>
       </c>
       <c r="AD6" t="n">
-        <v>209120.5201522038</v>
+        <v>245707.3219932378</v>
       </c>
       <c r="AE6" t="n">
-        <v>286127.9214183415</v>
+        <v>336187.5977929992</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.640834918965239e-06</v>
+        <v>4.886236008772852e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.755208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>258820.2741813191</v>
+        <v>304102.3253019925</v>
       </c>
     </row>
     <row r="7">
@@ -3707,28 +3707,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>201.2271940411248</v>
+        <v>237.8139958821588</v>
       </c>
       <c r="AB7" t="n">
-        <v>275.3279244041974</v>
+        <v>325.3876007788551</v>
       </c>
       <c r="AC7" t="n">
-        <v>249.0510137243105</v>
+        <v>294.3330648449838</v>
       </c>
       <c r="AD7" t="n">
-        <v>201227.1940411248</v>
+        <v>237813.9958821588</v>
       </c>
       <c r="AE7" t="n">
-        <v>275327.9244041974</v>
+        <v>325387.6007788552</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.698447597075669e-06</v>
+        <v>4.992834547107588e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.630787037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>249051.0137243104</v>
+        <v>294333.0648449838</v>
       </c>
     </row>
     <row r="8">
@@ -3813,28 +3813,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>195.2539537097272</v>
+        <v>231.8407555507612</v>
       </c>
       <c r="AB8" t="n">
-        <v>267.1550734620183</v>
+        <v>317.214749836676</v>
       </c>
       <c r="AC8" t="n">
-        <v>241.6581682053819</v>
+        <v>286.9402193260553</v>
       </c>
       <c r="AD8" t="n">
-        <v>195253.9537097272</v>
+        <v>231840.7555507612</v>
       </c>
       <c r="AE8" t="n">
-        <v>267155.0734620183</v>
+        <v>317214.749836676</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.737258690169204e-06</v>
+        <v>5.064645230634814e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.552662037037038</v>
       </c>
       <c r="AH8" t="n">
-        <v>241658.168205382</v>
+        <v>286940.2193260553</v>
       </c>
     </row>
     <row r="9">
@@ -3919,28 +3919,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>189.7179314563263</v>
+        <v>226.1341410967681</v>
       </c>
       <c r="AB9" t="n">
-        <v>259.5804435828542</v>
+        <v>309.4067081826651</v>
       </c>
       <c r="AC9" t="n">
-        <v>234.8064503708231</v>
+        <v>279.8773662088454</v>
       </c>
       <c r="AD9" t="n">
-        <v>189717.9314563263</v>
+        <v>226134.1410967681</v>
       </c>
       <c r="AE9" t="n">
-        <v>259580.4435828542</v>
+        <v>309406.7081826651</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.764725810179919e-06</v>
+        <v>5.115466593942989e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.497685185185186</v>
       </c>
       <c r="AH9" t="n">
-        <v>234806.4503708231</v>
+        <v>279877.3662088454</v>
       </c>
     </row>
     <row r="10">
@@ -4025,28 +4025,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>188.5746578857121</v>
+        <v>224.9908675261539</v>
       </c>
       <c r="AB10" t="n">
-        <v>258.0161662458704</v>
+        <v>307.8424308456812</v>
       </c>
       <c r="AC10" t="n">
-        <v>233.3914654674035</v>
+        <v>278.4623813054258</v>
       </c>
       <c r="AD10" t="n">
-        <v>188574.6578857121</v>
+        <v>224990.8675261539</v>
       </c>
       <c r="AE10" t="n">
-        <v>258016.1662458704</v>
+        <v>307842.4308456812</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.772603569265211e-06</v>
+        <v>5.130042510761777e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.480324074074075</v>
       </c>
       <c r="AH10" t="n">
-        <v>233391.4654674035</v>
+        <v>278462.3813054258</v>
       </c>
     </row>
     <row r="11">
@@ -4131,28 +4131,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>189.1179470635064</v>
+        <v>225.5341567039482</v>
       </c>
       <c r="AB11" t="n">
-        <v>258.7595184671551</v>
+        <v>308.585783066966</v>
       </c>
       <c r="AC11" t="n">
-        <v>234.0638731959904</v>
+        <v>279.1347890340128</v>
       </c>
       <c r="AD11" t="n">
-        <v>189117.9470635064</v>
+        <v>225534.1567039482</v>
       </c>
       <c r="AE11" t="n">
-        <v>258759.5184671551</v>
+        <v>308585.783066966</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.772761124446917e-06</v>
+        <v>5.130334029098153e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.480324074074075</v>
       </c>
       <c r="AH11" t="n">
-        <v>234063.8731959904</v>
+        <v>279134.7890340128</v>
       </c>
     </row>
   </sheetData>
@@ -4428,28 +4428,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>348.2407993517155</v>
+        <v>395.2103965365637</v>
       </c>
       <c r="AB2" t="n">
-        <v>476.4784249727982</v>
+        <v>540.7442999934902</v>
       </c>
       <c r="AC2" t="n">
-        <v>431.003992835063</v>
+        <v>489.1364229415025</v>
       </c>
       <c r="AD2" t="n">
-        <v>348240.7993517154</v>
+        <v>395210.3965365638</v>
       </c>
       <c r="AE2" t="n">
-        <v>476478.4249727982</v>
+        <v>540744.2999934902</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.8737716332171e-06</v>
+        <v>3.571697916582425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.388310185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>431003.992835063</v>
+        <v>489136.4229415025</v>
       </c>
     </row>
     <row r="3">
@@ -4534,28 +4534,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>235.7996454660109</v>
+        <v>271.005530518145</v>
       </c>
       <c r="AB3" t="n">
-        <v>322.6314776726144</v>
+        <v>370.8017227751269</v>
       </c>
       <c r="AC3" t="n">
-        <v>291.8399822597588</v>
+        <v>335.4129267769546</v>
       </c>
       <c r="AD3" t="n">
-        <v>235799.6454660109</v>
+        <v>271005.530518145</v>
       </c>
       <c r="AE3" t="n">
-        <v>322631.4776726144</v>
+        <v>370801.7227751269</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.44178701276666e-06</v>
+        <v>4.654422893179869e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.438078703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>291839.9822597588</v>
+        <v>335412.9267769546</v>
       </c>
     </row>
     <row r="4">
@@ -4640,28 +4640,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>200.7400691045072</v>
+        <v>236.0312055026585</v>
       </c>
       <c r="AB4" t="n">
-        <v>274.6614185754821</v>
+        <v>322.9483083304634</v>
       </c>
       <c r="AC4" t="n">
-        <v>248.4481182764407</v>
+        <v>292.1265750442973</v>
       </c>
       <c r="AD4" t="n">
-        <v>200740.0691045072</v>
+        <v>236031.2055026584</v>
       </c>
       <c r="AE4" t="n">
-        <v>274661.4185754821</v>
+        <v>322948.3083304634</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.656823346794127e-06</v>
+        <v>5.064315332909442e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.91724537037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>248448.1182764407</v>
+        <v>292126.5750442973</v>
       </c>
     </row>
     <row r="5">
@@ -4746,28 +4746,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>189.3373084989693</v>
+        <v>224.6284448971205</v>
       </c>
       <c r="AB5" t="n">
-        <v>259.0596584606989</v>
+        <v>307.3465482156801</v>
       </c>
       <c r="AC5" t="n">
-        <v>234.3353682497995</v>
+        <v>278.0138250176561</v>
       </c>
       <c r="AD5" t="n">
-        <v>189337.3084989693</v>
+        <v>224628.4448971206</v>
       </c>
       <c r="AE5" t="n">
-        <v>259059.6584606988</v>
+        <v>307346.5482156801</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.761842354796929e-06</v>
+        <v>5.26449776999819e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.691550925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>234335.3682497995</v>
+        <v>278013.8250176561</v>
       </c>
     </row>
     <row r="6">
@@ -4852,28 +4852,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>180.1155135474422</v>
+        <v>215.4066499455934</v>
       </c>
       <c r="AB6" t="n">
-        <v>246.4419917711456</v>
+        <v>294.7288815261268</v>
       </c>
       <c r="AC6" t="n">
-        <v>222.9219139600868</v>
+        <v>266.6003707279434</v>
       </c>
       <c r="AD6" t="n">
-        <v>180115.5135474422</v>
+        <v>215406.6499455934</v>
       </c>
       <c r="AE6" t="n">
-        <v>246441.9917711456</v>
+        <v>294728.8815261268</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.832633750258725e-06</v>
+        <v>5.399437095154237e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.549768518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>222921.9139600868</v>
+        <v>266600.3707279434</v>
       </c>
     </row>
     <row r="7">
@@ -4958,28 +4958,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>174.0529525813148</v>
+        <v>209.1734967788738</v>
       </c>
       <c r="AB7" t="n">
-        <v>238.146928395981</v>
+        <v>286.2004063761153</v>
       </c>
       <c r="AC7" t="n">
-        <v>215.4185197912507</v>
+        <v>258.8858412764562</v>
       </c>
       <c r="AD7" t="n">
-        <v>174052.9525813148</v>
+        <v>209173.4967788738</v>
       </c>
       <c r="AE7" t="n">
-        <v>238146.9283959809</v>
+        <v>286200.4063761153</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.876586351124875e-06</v>
+        <v>5.483217535715435e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.465856481481482</v>
       </c>
       <c r="AH7" t="n">
-        <v>215418.5197912507</v>
+        <v>258885.8412764563</v>
       </c>
     </row>
     <row r="8">
@@ -5064,28 +5064,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>174.5020563293124</v>
+        <v>209.6226005268715</v>
       </c>
       <c r="AB8" t="n">
-        <v>238.76141195705</v>
+        <v>286.8148899371844</v>
       </c>
       <c r="AC8" t="n">
-        <v>215.9743579036846</v>
+        <v>259.4416793888902</v>
       </c>
       <c r="AD8" t="n">
-        <v>174502.0563293124</v>
+        <v>209622.6005268715</v>
       </c>
       <c r="AE8" t="n">
-        <v>238761.41195705</v>
+        <v>286814.8899371844</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.876803669299738e-06</v>
+        <v>5.48363177769596e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.465856481481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>215974.3579036846</v>
+        <v>259441.6793888902</v>
       </c>
     </row>
   </sheetData>
@@ -5361,28 +5361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.3471906415074</v>
+        <v>204.6522667690591</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.1812737739176</v>
+        <v>280.0142600140991</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.5450258910119</v>
+        <v>253.290092040918</v>
       </c>
       <c r="AD2" t="n">
-        <v>173347.1906415074</v>
+        <v>204652.2667690591</v>
       </c>
       <c r="AE2" t="n">
-        <v>237181.2737739176</v>
+        <v>280014.2600140991</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.800579660389152e-06</v>
+        <v>5.964501756714116e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.264467592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>214545.0258910119</v>
+        <v>253290.092040918</v>
       </c>
     </row>
     <row r="3">
@@ -5467,28 +5467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.2134337301233</v>
+        <v>169.6037612036955</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.1097175758239</v>
+        <v>232.0593484686547</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.0613515475962</v>
+        <v>209.9119299482144</v>
       </c>
       <c r="AD3" t="n">
-        <v>138213.4337301232</v>
+        <v>169603.7612036955</v>
       </c>
       <c r="AE3" t="n">
-        <v>189109.7175758239</v>
+        <v>232059.3484686547</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.143831934116821e-06</v>
+        <v>6.695539269626821e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.578703703703705</v>
       </c>
       <c r="AH3" t="n">
-        <v>171061.3515475962</v>
+        <v>209911.9299482144</v>
       </c>
     </row>
     <row r="4">
@@ -5573,28 +5573,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.8951834098464</v>
+        <v>170.2855108834186</v>
       </c>
       <c r="AB4" t="n">
-        <v>190.0425175642937</v>
+        <v>232.9921484571245</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.9051264143598</v>
+        <v>210.755704814978</v>
       </c>
       <c r="AD4" t="n">
-        <v>138895.1834098464</v>
+        <v>170285.5108834186</v>
       </c>
       <c r="AE4" t="n">
-        <v>190042.5175642938</v>
+        <v>232992.1484571245</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.143225695554956e-06</v>
+        <v>6.69424814014446e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.581597222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>171905.1264143598</v>
+        <v>210755.704814978</v>
       </c>
     </row>
   </sheetData>
@@ -5870,28 +5870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.2697066725869</v>
+        <v>263.0715500028194</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.0144861660314</v>
+        <v>359.9461006115415</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.3815246794098</v>
+        <v>325.5933499567004</v>
       </c>
       <c r="AD2" t="n">
-        <v>219269.7066725869</v>
+        <v>263071.5500028194</v>
       </c>
       <c r="AE2" t="n">
-        <v>300014.4861660314</v>
+        <v>359946.1006115415</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.424793206302104e-06</v>
+        <v>4.923168536579109e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.921296296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>271381.5246794099</v>
+        <v>325593.3499567003</v>
       </c>
     </row>
     <row r="3">
@@ -5976,28 +5976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.7027733217558</v>
+        <v>198.6181614603564</v>
       </c>
       <c r="AB3" t="n">
-        <v>226.7218447491483</v>
+        <v>271.758130924798</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.0838300924625</v>
+        <v>245.8219163243471</v>
       </c>
       <c r="AD3" t="n">
-        <v>165702.7733217558</v>
+        <v>198618.1614603564</v>
       </c>
       <c r="AE3" t="n">
-        <v>226721.8447491484</v>
+        <v>271758.130924798</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.894568254044146e-06</v>
+        <v>5.876974299603596e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.798611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>205083.8300924625</v>
+        <v>245821.9163243471</v>
       </c>
     </row>
     <row r="4">
@@ -6082,28 +6082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.36935778172</v>
+        <v>184.2847459203206</v>
       </c>
       <c r="AB4" t="n">
-        <v>207.1102332616162</v>
+        <v>252.1465194372658</v>
       </c>
       <c r="AC4" t="n">
-        <v>187.3439232802247</v>
+        <v>228.0820095121092</v>
       </c>
       <c r="AD4" t="n">
-        <v>151369.35778172</v>
+        <v>184284.7459203206</v>
       </c>
       <c r="AE4" t="n">
-        <v>207110.2332616162</v>
+        <v>252146.5194372658</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.049362032121122e-06</v>
+        <v>6.191259186210059e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.503472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>187343.9232802247</v>
+        <v>228082.0095121092</v>
       </c>
     </row>
     <row r="5">
@@ -6188,28 +6188,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>151.748213856695</v>
+        <v>184.4930097947034</v>
       </c>
       <c r="AB5" t="n">
-        <v>207.6286008573472</v>
+        <v>252.43147525815</v>
       </c>
       <c r="AC5" t="n">
-        <v>187.8128186001528</v>
+        <v>228.3397695493863</v>
       </c>
       <c r="AD5" t="n">
-        <v>151748.213856695</v>
+        <v>184493.0097947034</v>
       </c>
       <c r="AE5" t="n">
-        <v>207628.6008573472</v>
+        <v>252431.47525815</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.053479813403799e-06</v>
+        <v>6.19961970586126e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>187812.8186001528</v>
+        <v>228339.7695493863</v>
       </c>
     </row>
   </sheetData>
@@ -6485,28 +6485,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.872512981389</v>
+        <v>162.011977872369</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.4337900657297</v>
+        <v>221.6719355888963</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.2134423823219</v>
+        <v>200.5158771748713</v>
       </c>
       <c r="AD2" t="n">
-        <v>131872.512981389</v>
+        <v>162011.977872369</v>
       </c>
       <c r="AE2" t="n">
-        <v>180433.7900657297</v>
+        <v>221671.9355888963</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.126237669009793e-06</v>
+        <v>6.961520659509854e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.827546296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>163213.4423823219</v>
+        <v>200515.8771748713</v>
       </c>
     </row>
     <row r="3">
@@ -6591,28 +6591,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.1379006659019</v>
+        <v>159.2773655568819</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.6921728531014</v>
+        <v>217.9303183762679</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.8289198650728</v>
+        <v>197.1313546576223</v>
       </c>
       <c r="AD3" t="n">
-        <v>129137.9006659019</v>
+        <v>159277.3655568819</v>
       </c>
       <c r="AE3" t="n">
-        <v>176692.1728531014</v>
+        <v>217930.3183762679</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.179378420493002e-06</v>
+        <v>7.079854733396632e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>159828.9198650728</v>
+        <v>197131.3546576223</v>
       </c>
     </row>
   </sheetData>
@@ -6888,28 +6888,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>370.0172712149716</v>
+        <v>429.3180819983592</v>
       </c>
       <c r="AB2" t="n">
-        <v>506.2739544862402</v>
+        <v>587.4119399672032</v>
       </c>
       <c r="AC2" t="n">
-        <v>457.9558788300305</v>
+        <v>531.3501688545682</v>
       </c>
       <c r="AD2" t="n">
-        <v>370017.2712149716</v>
+        <v>429318.0819983592</v>
       </c>
       <c r="AE2" t="n">
-        <v>506273.9544862402</v>
+        <v>587411.9399672032</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.794483530903784e-06</v>
+        <v>3.392944264174885e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.680555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>457955.8788300306</v>
+        <v>531350.1688545682</v>
       </c>
     </row>
     <row r="3">
@@ -6994,28 +6994,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>246.5042501881182</v>
+        <v>282.2212820254684</v>
       </c>
       <c r="AB3" t="n">
-        <v>337.2779901072248</v>
+        <v>386.147608791482</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.0886521041238</v>
+        <v>349.2942229699949</v>
       </c>
       <c r="AD3" t="n">
-        <v>246504.2501881182</v>
+        <v>282221.2820254684</v>
       </c>
       <c r="AE3" t="n">
-        <v>337277.9901072247</v>
+        <v>386147.6087914819</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.371556784953613e-06</v>
+        <v>4.484053407066252e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.568287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>305088.6521041238</v>
+        <v>349294.2229699949</v>
       </c>
     </row>
     <row r="4">
@@ -7100,28 +7100,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>208.8224764059593</v>
+        <v>256.1607160071828</v>
       </c>
       <c r="AB4" t="n">
-        <v>285.720124815968</v>
+        <v>350.4903926540677</v>
       </c>
       <c r="AC4" t="n">
-        <v>258.4513971143298</v>
+        <v>317.0400814956238</v>
       </c>
       <c r="AD4" t="n">
-        <v>208822.4764059593</v>
+        <v>256160.7160071828</v>
       </c>
       <c r="AE4" t="n">
-        <v>285720.124815968</v>
+        <v>350490.3926540677</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.599952450532954e-06</v>
+        <v>4.9158956336146e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.992476851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>258451.3971143298</v>
+        <v>317040.0814956238</v>
       </c>
     </row>
     <row r="5">
@@ -7206,28 +7206,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>195.7688480454937</v>
+        <v>231.4005390282687</v>
       </c>
       <c r="AB5" t="n">
-        <v>267.8595746077485</v>
+        <v>316.6124261696197</v>
       </c>
       <c r="AC5" t="n">
-        <v>242.2954327505374</v>
+        <v>286.3953805844161</v>
       </c>
       <c r="AD5" t="n">
-        <v>195768.8480454937</v>
+        <v>231400.5390282687</v>
       </c>
       <c r="AE5" t="n">
-        <v>267859.5746077485</v>
+        <v>316612.4261696197</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.718349920737803e-06</v>
+        <v>5.139757268734782e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.732060185185184</v>
       </c>
       <c r="AH5" t="n">
-        <v>242295.4327505374</v>
+        <v>286395.3805844161</v>
       </c>
     </row>
     <row r="6">
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>187.1603697810867</v>
+        <v>222.7920607638617</v>
       </c>
       <c r="AB6" t="n">
-        <v>256.0810748671352</v>
+        <v>304.8339264290065</v>
       </c>
       <c r="AC6" t="n">
-        <v>231.6410564939363</v>
+        <v>275.7410043278149</v>
       </c>
       <c r="AD6" t="n">
-        <v>187160.3697810867</v>
+        <v>222792.0607638617</v>
       </c>
       <c r="AE6" t="n">
-        <v>256081.0748671352</v>
+        <v>304833.9264290064</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.785113387338082e-06</v>
+        <v>5.265991205773903e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.593171296296297</v>
       </c>
       <c r="AH6" t="n">
-        <v>231641.0564939363</v>
+        <v>275741.004327815</v>
       </c>
     </row>
     <row r="7">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>180.0987591948773</v>
+        <v>215.7304501776523</v>
       </c>
       <c r="AB7" t="n">
-        <v>246.4190677268164</v>
+        <v>295.1719192886877</v>
       </c>
       <c r="AC7" t="n">
-        <v>222.9011777543743</v>
+        <v>267.001125588253</v>
       </c>
       <c r="AD7" t="n">
-        <v>180098.7591948773</v>
+        <v>215730.4501776523</v>
       </c>
       <c r="AE7" t="n">
-        <v>246419.0677268164</v>
+        <v>295171.9192886876</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.832224704495537e-06</v>
+        <v>5.355067572636186e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.500578703703705</v>
       </c>
       <c r="AH7" t="n">
-        <v>222901.1777543743</v>
+        <v>267001.125588253</v>
       </c>
     </row>
     <row r="8">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>177.6592079616504</v>
+        <v>213.1203067438332</v>
       </c>
       <c r="AB8" t="n">
-        <v>243.0811661041124</v>
+        <v>291.6006058911368</v>
       </c>
       <c r="AC8" t="n">
-        <v>219.8818407777658</v>
+        <v>263.7706533289935</v>
       </c>
       <c r="AD8" t="n">
-        <v>177659.2079616504</v>
+        <v>213120.3067438332</v>
       </c>
       <c r="AE8" t="n">
-        <v>243081.1661041124</v>
+        <v>291600.6058911368</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.848161790071087e-06</v>
+        <v>5.38520083502617e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.46875</v>
       </c>
       <c r="AH8" t="n">
-        <v>219881.8407777658</v>
+        <v>263770.6533289935</v>
       </c>
     </row>
   </sheetData>
@@ -7821,28 +7821,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.1405981651891</v>
+        <v>152.539365119585</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.4863989893173</v>
+        <v>208.7110889183631</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.4062935419697</v>
+        <v>188.7919955199072</v>
       </c>
       <c r="AD2" t="n">
-        <v>123140.5981651891</v>
+        <v>152539.365119585</v>
       </c>
       <c r="AE2" t="n">
-        <v>168486.3989893172</v>
+        <v>208711.0889183632</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.176911318931166e-06</v>
+        <v>7.283281251711999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.868055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>152406.2935419697</v>
+        <v>188791.9955199072</v>
       </c>
     </row>
     <row r="3">
@@ -7927,28 +7927,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.6514778269612</v>
+        <v>153.0502447813571</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.1854070809734</v>
+        <v>209.4100970100193</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.0385892824225</v>
+        <v>189.42429126036</v>
       </c>
       <c r="AD3" t="n">
-        <v>123651.4778269612</v>
+        <v>153050.2447813571</v>
       </c>
       <c r="AE3" t="n">
-        <v>169185.4070809734</v>
+        <v>209410.0970100194</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.184579103430452e-06</v>
+        <v>7.300860159487306e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.853587962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>153038.5892824225</v>
+        <v>189424.29126036</v>
       </c>
     </row>
   </sheetData>
@@ -8224,28 +8224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.734393734286</v>
+        <v>325.3155564009139</v>
       </c>
       <c r="AB2" t="n">
-        <v>382.7449385177178</v>
+        <v>445.1110961771728</v>
       </c>
       <c r="AC2" t="n">
-        <v>346.2162987714812</v>
+        <v>402.6303178753699</v>
       </c>
       <c r="AD2" t="n">
-        <v>279734.393734286</v>
+        <v>325315.5564009139</v>
       </c>
       <c r="AE2" t="n">
-        <v>382744.9385177178</v>
+        <v>445111.0961771728</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.127433936927412e-06</v>
+        <v>4.169741115380743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.612847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>346216.2987714812</v>
+        <v>402630.3178753699</v>
       </c>
     </row>
     <row r="3">
@@ -8330,28 +8330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>206.5240150999329</v>
+        <v>240.6246357538828</v>
       </c>
       <c r="AB3" t="n">
-        <v>282.5752686561078</v>
+        <v>329.2332422480258</v>
       </c>
       <c r="AC3" t="n">
-        <v>255.6066816125324</v>
+        <v>297.8116836897298</v>
       </c>
       <c r="AD3" t="n">
-        <v>206524.0150999328</v>
+        <v>240624.6357538828</v>
       </c>
       <c r="AE3" t="n">
-        <v>282575.2686561078</v>
+        <v>329233.2422480258</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.648461013834225e-06</v>
+        <v>5.190946985558187e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.116898148148149</v>
       </c>
       <c r="AH3" t="n">
-        <v>255606.6816125324</v>
+        <v>297811.6836897298</v>
       </c>
     </row>
     <row r="4">
@@ -8436,28 +8436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>176.1237147778638</v>
+        <v>210.3095867778343</v>
       </c>
       <c r="AB4" t="n">
-        <v>240.9802365888783</v>
+        <v>287.7548548334456</v>
       </c>
       <c r="AC4" t="n">
-        <v>217.9814210267918</v>
+        <v>260.2919353547015</v>
       </c>
       <c r="AD4" t="n">
-        <v>176123.7147778638</v>
+        <v>210309.5867778343</v>
       </c>
       <c r="AE4" t="n">
-        <v>240980.2365888783</v>
+        <v>287754.8548334456</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.845945277620993e-06</v>
+        <v>5.578013413360726e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.691550925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>217981.4210267919</v>
+        <v>260291.9353547015</v>
       </c>
     </row>
     <row r="5">
@@ -8542,28 +8542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>165.2622858016341</v>
+        <v>199.4481578016046</v>
       </c>
       <c r="AB5" t="n">
-        <v>226.1191502911802</v>
+        <v>272.8937685357474</v>
       </c>
       <c r="AC5" t="n">
-        <v>204.5386559476757</v>
+        <v>246.8491702755853</v>
       </c>
       <c r="AD5" t="n">
-        <v>165262.2858016341</v>
+        <v>199448.1578016046</v>
       </c>
       <c r="AE5" t="n">
-        <v>226119.1502911802</v>
+        <v>272893.7685357474</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.941440786130127e-06</v>
+        <v>5.765183290296987e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.506365740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>204538.6559476757</v>
+        <v>246849.1702755853</v>
       </c>
     </row>
     <row r="6">
@@ -8648,28 +8648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>162.6803493300525</v>
+        <v>196.6956291294308</v>
       </c>
       <c r="AB6" t="n">
-        <v>222.586430903766</v>
+        <v>269.1276373734864</v>
       </c>
       <c r="AC6" t="n">
-        <v>201.3430943403924</v>
+        <v>243.4424733856509</v>
       </c>
       <c r="AD6" t="n">
-        <v>162680.3493300524</v>
+        <v>196695.6291294307</v>
       </c>
       <c r="AE6" t="n">
-        <v>222586.430903766</v>
+        <v>269127.6373734864</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.966518152960193e-06</v>
+        <v>5.814334582716356e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.460069444444446</v>
       </c>
       <c r="AH6" t="n">
-        <v>201343.0943403924</v>
+        <v>243442.473385651</v>
       </c>
     </row>
     <row r="7">
@@ -8754,28 +8754,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>163.2975047829321</v>
+        <v>197.3127845823104</v>
       </c>
       <c r="AB7" t="n">
-        <v>223.4308502213726</v>
+        <v>269.9720566910929</v>
       </c>
       <c r="AC7" t="n">
-        <v>202.1069234634768</v>
+        <v>244.2063025087354</v>
       </c>
       <c r="AD7" t="n">
-        <v>163297.5047829321</v>
+        <v>197312.7845823104</v>
       </c>
       <c r="AE7" t="n">
-        <v>223430.8502213726</v>
+        <v>269972.0566910929</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.96590241404249e-06</v>
+        <v>5.813127742947131e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.460069444444446</v>
       </c>
       <c r="AH7" t="n">
-        <v>202106.9234634768</v>
+        <v>244206.3025087354</v>
       </c>
     </row>
   </sheetData>
@@ -9051,28 +9051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.9772624771511</v>
+        <v>375.4755201951488</v>
       </c>
       <c r="AB2" t="n">
-        <v>450.1212039737516</v>
+        <v>513.742171541869</v>
       </c>
       <c r="AC2" t="n">
-        <v>407.1622680155735</v>
+        <v>464.7113397315787</v>
       </c>
       <c r="AD2" t="n">
-        <v>328977.2624771511</v>
+        <v>375475.5201951488</v>
       </c>
       <c r="AE2" t="n">
-        <v>450121.2039737516</v>
+        <v>513742.1715418689</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.951296323813062e-06</v>
+        <v>3.75176345420347e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.133680555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>407162.2680155735</v>
+        <v>464711.3397315787</v>
       </c>
     </row>
     <row r="3">
@@ -9157,28 +9157,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.2231947090658</v>
+        <v>260.0755751610617</v>
       </c>
       <c r="AB3" t="n">
-        <v>308.1603111468931</v>
+        <v>355.8468756599671</v>
       </c>
       <c r="AC3" t="n">
-        <v>278.7499235568379</v>
+        <v>321.8853492812057</v>
       </c>
       <c r="AD3" t="n">
-        <v>225223.1947090658</v>
+        <v>260075.5751610618</v>
       </c>
       <c r="AE3" t="n">
-        <v>308160.3111468931</v>
+        <v>355846.8756599671</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.5132990623063e-06</v>
+        <v>4.832327851168531e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.313657407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>278749.9235568379</v>
+        <v>321885.3492812057</v>
       </c>
     </row>
     <row r="4">
@@ -9263,28 +9263,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>192.9724422082903</v>
+        <v>227.9100740063036</v>
       </c>
       <c r="AB4" t="n">
-        <v>264.0334087725702</v>
+        <v>311.8366179381206</v>
       </c>
       <c r="AC4" t="n">
-        <v>238.8344308126099</v>
+        <v>282.0753687876409</v>
       </c>
       <c r="AD4" t="n">
-        <v>192972.4422082903</v>
+        <v>227910.0740063036</v>
       </c>
       <c r="AE4" t="n">
-        <v>264033.4087725702</v>
+        <v>311836.6179381206</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.713046693182886e-06</v>
+        <v>5.216383236524905e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.850694444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>238834.4308126099</v>
+        <v>282075.3687876409</v>
       </c>
     </row>
     <row r="5">
@@ -9369,28 +9369,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>181.2387214771441</v>
+        <v>216.1763532751573</v>
       </c>
       <c r="AB5" t="n">
-        <v>247.9788144129995</v>
+        <v>295.7820235785499</v>
       </c>
       <c r="AC5" t="n">
-        <v>224.3120644059468</v>
+        <v>267.5530023809777</v>
       </c>
       <c r="AD5" t="n">
-        <v>181238.721477144</v>
+        <v>216176.3532751573</v>
       </c>
       <c r="AE5" t="n">
-        <v>247978.8144129995</v>
+        <v>295782.0235785499</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.821147346795668e-06</v>
+        <v>5.424228696310026e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="AH5" t="n">
-        <v>224312.0644059468</v>
+        <v>267553.0023809777</v>
       </c>
     </row>
     <row r="6">
@@ -9475,28 +9475,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>172.4625995967091</v>
+        <v>207.2296391941301</v>
       </c>
       <c r="AB6" t="n">
-        <v>235.9709372810225</v>
+        <v>283.540734671726</v>
       </c>
       <c r="AC6" t="n">
-        <v>213.4502022142804</v>
+        <v>256.4800049066604</v>
       </c>
       <c r="AD6" t="n">
-        <v>172462.5995967091</v>
+        <v>207229.6391941301</v>
       </c>
       <c r="AE6" t="n">
-        <v>235970.9372810225</v>
+        <v>283540.734671726</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.890527015400522e-06</v>
+        <v>5.557625198911841e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.48900462962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>213450.2022142804</v>
+        <v>256480.0049066604</v>
       </c>
     </row>
     <row r="7">
@@ -9581,28 +9581,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>170.3456022670538</v>
+        <v>205.1126418644749</v>
       </c>
       <c r="AB7" t="n">
-        <v>233.0743681392589</v>
+        <v>280.6441655299625</v>
       </c>
       <c r="AC7" t="n">
-        <v>210.8300775660456</v>
+        <v>253.8598802584255</v>
       </c>
       <c r="AD7" t="n">
-        <v>170345.6022670538</v>
+        <v>205112.6418644749</v>
       </c>
       <c r="AE7" t="n">
-        <v>233074.3681392589</v>
+        <v>280644.1655299625</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.905828934405071e-06</v>
+        <v>5.58704624573074e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.460069444444446</v>
       </c>
       <c r="AH7" t="n">
-        <v>210830.0775660456</v>
+        <v>253859.8802584255</v>
       </c>
     </row>
   </sheetData>
@@ -9878,28 +9878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>427.6224699801456</v>
+        <v>487.9161549764011</v>
       </c>
       <c r="AB2" t="n">
-        <v>585.0919287987605</v>
+        <v>667.588408580288</v>
       </c>
       <c r="AC2" t="n">
-        <v>529.2515762958857</v>
+        <v>603.8747078316006</v>
       </c>
       <c r="AD2" t="n">
-        <v>427622.4699801456</v>
+        <v>487916.1549764011</v>
       </c>
       <c r="AE2" t="n">
-        <v>585091.9287987605</v>
+        <v>667588.4085802881</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.652837349204315e-06</v>
+        <v>3.079110619764858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.267939814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>529251.5762958857</v>
+        <v>603874.7078316007</v>
       </c>
     </row>
     <row r="3">
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>266.1392246501248</v>
+        <v>314.4253055530314</v>
       </c>
       <c r="AB3" t="n">
-        <v>364.1434284002387</v>
+        <v>430.2105745231407</v>
       </c>
       <c r="AC3" t="n">
-        <v>329.3900906722308</v>
+        <v>389.151881094985</v>
       </c>
       <c r="AD3" t="n">
-        <v>266139.2246501248</v>
+        <v>314425.3055530314</v>
       </c>
       <c r="AE3" t="n">
-        <v>364143.4284002387</v>
+        <v>430210.5745231407</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.258662428452735e-06</v>
+        <v>4.207716792738692e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.782407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>329390.0906722308</v>
+        <v>389151.8810949849</v>
       </c>
     </row>
     <row r="4">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>237.8742459991153</v>
+        <v>274.0675609712063</v>
       </c>
       <c r="AB4" t="n">
-        <v>325.4700376469225</v>
+        <v>374.9913279282551</v>
       </c>
       <c r="AC4" t="n">
-        <v>294.4076340540637</v>
+        <v>339.2026818944159</v>
       </c>
       <c r="AD4" t="n">
-        <v>237874.2459991153</v>
+        <v>274067.5609712063</v>
       </c>
       <c r="AE4" t="n">
-        <v>325470.0376469225</v>
+        <v>374991.3279282551</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.485185105323059e-06</v>
+        <v>4.629711358813056e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.163194444444446</v>
       </c>
       <c r="AH4" t="n">
-        <v>294407.6340540637</v>
+        <v>339202.6818944159</v>
       </c>
     </row>
     <row r="5">
@@ -10196,28 +10196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>211.5018108315187</v>
+        <v>247.7803771496269</v>
       </c>
       <c r="AB5" t="n">
-        <v>289.386108380909</v>
+        <v>339.0240433147081</v>
       </c>
       <c r="AC5" t="n">
-        <v>261.7675043530742</v>
+        <v>306.6680644440866</v>
       </c>
       <c r="AD5" t="n">
-        <v>211501.8108315187</v>
+        <v>247780.3771496269</v>
       </c>
       <c r="AE5" t="n">
-        <v>289386.108380909</v>
+        <v>339024.0433147081</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.606254832362655e-06</v>
+        <v>4.855255077581944e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.876736111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>261767.5043530742</v>
+        <v>306668.0644440866</v>
       </c>
     </row>
     <row r="6">
@@ -10302,28 +10302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>202.0603051913444</v>
+        <v>238.3388715094526</v>
       </c>
       <c r="AB6" t="n">
-        <v>276.4678238341972</v>
+        <v>326.1057587679965</v>
       </c>
       <c r="AC6" t="n">
-        <v>250.0821227525704</v>
+        <v>294.9826828435828</v>
       </c>
       <c r="AD6" t="n">
-        <v>202060.3051913444</v>
+        <v>238338.8715094526</v>
       </c>
       <c r="AE6" t="n">
-        <v>276467.8238341972</v>
+        <v>326105.7587679964</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.684762224229608e-06</v>
+        <v>5.001508394125129e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.706018518518518</v>
       </c>
       <c r="AH6" t="n">
-        <v>250082.1227525704</v>
+        <v>294982.6828435828</v>
       </c>
     </row>
     <row r="7">
@@ -10408,28 +10408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>194.3493396464856</v>
+        <v>230.6279059645938</v>
       </c>
       <c r="AB7" t="n">
-        <v>265.9173405919359</v>
+        <v>315.5552755257351</v>
       </c>
       <c r="AC7" t="n">
-        <v>240.5385628232509</v>
+        <v>285.4391229142633</v>
       </c>
       <c r="AD7" t="n">
-        <v>194349.3396464856</v>
+        <v>230627.9059645938</v>
       </c>
       <c r="AE7" t="n">
-        <v>265917.3405919359</v>
+        <v>315555.2755257351</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.741988448510239e-06</v>
+        <v>5.10811650955546e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.58738425925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>240538.5628232509</v>
+        <v>285439.1229142633</v>
       </c>
     </row>
     <row r="8">
@@ -10514,28 +10514,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>188.2344443266435</v>
+        <v>224.5130106447517</v>
       </c>
       <c r="AB8" t="n">
-        <v>257.5506710451901</v>
+        <v>307.1886059789893</v>
       </c>
       <c r="AC8" t="n">
-        <v>232.9703964753493</v>
+        <v>277.8709565663617</v>
       </c>
       <c r="AD8" t="n">
-        <v>188234.4443266435</v>
+        <v>224513.0106447517</v>
       </c>
       <c r="AE8" t="n">
-        <v>257550.6710451901</v>
+        <v>307188.6059789893</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.778251134571509e-06</v>
+        <v>5.175671143292534e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.512152777777779</v>
       </c>
       <c r="AH8" t="n">
-        <v>232970.3964753493</v>
+        <v>277870.9565663617</v>
       </c>
     </row>
     <row r="9">
@@ -10620,28 +10620,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>184.5944911849783</v>
+        <v>220.7024653024942</v>
       </c>
       <c r="AB9" t="n">
-        <v>252.570326573367</v>
+        <v>301.9748497323193</v>
       </c>
       <c r="AC9" t="n">
-        <v>228.4653690899581</v>
+        <v>273.1547938983195</v>
       </c>
       <c r="AD9" t="n">
-        <v>184594.4911849783</v>
+        <v>220702.4653024942</v>
       </c>
       <c r="AE9" t="n">
-        <v>252570.326573367</v>
+        <v>301974.8497323193</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.79778534063955e-06</v>
+        <v>5.212061887597616e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.474537037037038</v>
       </c>
       <c r="AH9" t="n">
-        <v>228465.3690899581</v>
+        <v>273154.7938983195</v>
       </c>
     </row>
     <row r="10">
@@ -10726,28 +10726,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>185.1808127126278</v>
+        <v>221.2887868301437</v>
       </c>
       <c r="AB10" t="n">
-        <v>253.3725575541769</v>
+        <v>302.7770807131291</v>
       </c>
       <c r="AC10" t="n">
-        <v>229.191036271898</v>
+        <v>273.8804610802593</v>
       </c>
       <c r="AD10" t="n">
-        <v>185180.8127126278</v>
+        <v>221288.7868301437</v>
       </c>
       <c r="AE10" t="n">
-        <v>253372.5575541769</v>
+        <v>302777.0807131291</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.79730889658911e-06</v>
+        <v>5.211174308468223e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.474537037037038</v>
       </c>
       <c r="AH10" t="n">
-        <v>229191.036271898</v>
+        <v>273880.4610802593</v>
       </c>
     </row>
   </sheetData>
@@ -11023,28 +11023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.1016688463368</v>
+        <v>279.463208822218</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.7271605547642</v>
+        <v>382.3738913571925</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.5903929510559</v>
+        <v>345.8806638311884</v>
       </c>
       <c r="AD2" t="n">
-        <v>246101.6688463368</v>
+        <v>279463.208822218</v>
       </c>
       <c r="AE2" t="n">
-        <v>336727.1605547642</v>
+        <v>382373.8913571925</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.320738083835458e-06</v>
+        <v>4.651913350613232e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.141203703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>304590.3929510559</v>
+        <v>345880.6638311884</v>
       </c>
     </row>
     <row r="3">
@@ -11129,28 +11129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.3213341683214</v>
+        <v>208.682784635648</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.8823840403688</v>
+        <v>285.5289923730622</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.988345984666</v>
+        <v>258.2785060835188</v>
       </c>
       <c r="AD3" t="n">
-        <v>175321.3341683214</v>
+        <v>208682.784635648</v>
       </c>
       <c r="AE3" t="n">
-        <v>239882.3840403688</v>
+        <v>285528.9923730622</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.811207481939373e-06</v>
+        <v>5.635057961803492e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.894097222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>216988.345984666</v>
+        <v>258278.5060835188</v>
       </c>
     </row>
     <row r="4">
@@ -11235,28 +11235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.9087494426793</v>
+        <v>192.270199910006</v>
       </c>
       <c r="AB4" t="n">
-        <v>217.4259615466209</v>
+        <v>263.0725698793144</v>
       </c>
       <c r="AC4" t="n">
-        <v>196.6751329359274</v>
+        <v>237.9652930347802</v>
       </c>
       <c r="AD4" t="n">
-        <v>158908.7494426793</v>
+        <v>192270.199910006</v>
       </c>
       <c r="AE4" t="n">
-        <v>217425.9615466209</v>
+        <v>263072.5698793144</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.991210438296287e-06</v>
+        <v>5.99587341170669e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.541087962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>196675.1329359274</v>
+        <v>237965.2930347802</v>
       </c>
     </row>
     <row r="5">
@@ -11341,28 +11341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.9661785534439</v>
+        <v>188.1570368201784</v>
       </c>
       <c r="AB5" t="n">
-        <v>212.0315621220198</v>
+        <v>257.4447586798664</v>
       </c>
       <c r="AC5" t="n">
-        <v>191.7955674213214</v>
+        <v>232.8745922375231</v>
       </c>
       <c r="AD5" t="n">
-        <v>154966.1785534439</v>
+        <v>188157.0368201784</v>
       </c>
       <c r="AE5" t="n">
-        <v>212031.5621220198</v>
+        <v>257444.7586798664</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.026546685217132e-06</v>
+        <v>6.066704825193892e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.474537037037038</v>
       </c>
       <c r="AH5" t="n">
-        <v>191795.5674213213</v>
+        <v>232874.5922375231</v>
       </c>
     </row>
   </sheetData>
@@ -11638,28 +11638,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.2604884879702</v>
+        <v>220.1109841625654</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.5863058157045</v>
+        <v>301.1655591423628</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.0026303133796</v>
+        <v>272.4227408664216</v>
       </c>
       <c r="AD2" t="n">
-        <v>188260.4884879702</v>
+        <v>220110.9841625653</v>
       </c>
       <c r="AE2" t="n">
-        <v>257586.3058157045</v>
+        <v>301165.5591423628</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.666271073779344e-06</v>
+        <v>5.578005829385329e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.472800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>233002.6303133796</v>
+        <v>272422.7408664216</v>
       </c>
     </row>
     <row r="3">
@@ -11744,28 +11744,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.1472168289924</v>
+        <v>177.0829638496081</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.5968255086131</v>
+        <v>242.2927234879206</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.6430232145226</v>
+        <v>219.1686460182769</v>
       </c>
       <c r="AD3" t="n">
-        <v>145147.2168289924</v>
+        <v>177082.9638496081</v>
       </c>
       <c r="AE3" t="n">
-        <v>198596.8255086131</v>
+        <v>242292.7234879206</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.087631747578452e-06</v>
+        <v>6.459518709991881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.590277777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>179643.0232145226</v>
+        <v>219168.6460182769</v>
       </c>
     </row>
     <row r="4">
@@ -11850,28 +11850,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.2183076788093</v>
+        <v>175.154054699425</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.9576069118681</v>
+        <v>239.6535048911757</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.2556879364836</v>
+        <v>216.7813107402378</v>
       </c>
       <c r="AD4" t="n">
-        <v>143218.3076788093</v>
+        <v>175154.054699425</v>
       </c>
       <c r="AE4" t="n">
-        <v>195957.6069118681</v>
+        <v>239653.5048911757</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.110719186451488e-06</v>
+        <v>6.507819075954607e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.549768518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>177255.6879364836</v>
+        <v>216781.3107402379</v>
       </c>
     </row>
   </sheetData>
@@ -21208,28 +21208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.6965231788404</v>
+        <v>188.4074274415014</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.767340092789</v>
+        <v>257.7873541744149</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.1748079857588</v>
+        <v>233.1844908989078</v>
       </c>
       <c r="AD2" t="n">
-        <v>157696.5231788404</v>
+        <v>188407.4274415014</v>
       </c>
       <c r="AE2" t="n">
-        <v>215767.340092789</v>
+        <v>257787.3541744149</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.956356505062882e-06</v>
+        <v>6.4266926462847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.038773148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>195174.8079857588</v>
+        <v>233184.4908989078</v>
       </c>
     </row>
     <row r="3">
@@ -21314,28 +21314,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.7122287110191</v>
+        <v>164.5083843197007</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.9509702895383</v>
+        <v>225.0876290238134</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.4903864584556</v>
+        <v>203.6055816223169</v>
       </c>
       <c r="AD3" t="n">
-        <v>133712.2287110191</v>
+        <v>164508.3843197007</v>
       </c>
       <c r="AE3" t="n">
-        <v>182950.9702895383</v>
+        <v>225087.6290238134</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.168402031655014e-06</v>
+        <v>6.887649037739335e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.636574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>165490.3864584556</v>
+        <v>203605.5816223169</v>
       </c>
     </row>
   </sheetData>
@@ -21611,28 +21611,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.5708180270343</v>
+        <v>155.0226987041351</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.1797771349115</v>
+        <v>212.1088954856885</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.6517422645475</v>
+        <v>191.8655201972996</v>
       </c>
       <c r="AD2" t="n">
-        <v>126570.8180270343</v>
+        <v>155022.6987041351</v>
       </c>
       <c r="AE2" t="n">
-        <v>173179.7771349114</v>
+        <v>212108.8954856885</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.134986229912173e-06</v>
+        <v>7.456649278119627e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.11400462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>156651.7422645475</v>
+        <v>191865.5201972996</v>
       </c>
     </row>
   </sheetData>
@@ -21908,28 +21908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.2475104307163</v>
+        <v>343.3405356353306</v>
       </c>
       <c r="AB2" t="n">
-        <v>406.7071574059534</v>
+        <v>469.7736679716628</v>
       </c>
       <c r="AC2" t="n">
-        <v>367.8915971202089</v>
+        <v>424.9391284319306</v>
       </c>
       <c r="AD2" t="n">
-        <v>297247.5104307163</v>
+        <v>343340.5356353306</v>
       </c>
       <c r="AE2" t="n">
-        <v>406707.1574059534</v>
+        <v>469773.6679716628</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.041014330503208e-06</v>
+        <v>3.96074790543331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.85300925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>367891.5971202089</v>
+        <v>424939.1284319306</v>
       </c>
     </row>
     <row r="3">
@@ -22014,28 +22014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.9334390639803</v>
+        <v>250.41795662142</v>
       </c>
       <c r="AB3" t="n">
-        <v>295.4496576381991</v>
+        <v>342.6328959098075</v>
       </c>
       <c r="AC3" t="n">
-        <v>267.2523569794954</v>
+        <v>309.9324932125674</v>
       </c>
       <c r="AD3" t="n">
-        <v>215933.4390639803</v>
+        <v>250417.95662142</v>
       </c>
       <c r="AE3" t="n">
-        <v>295449.6576381991</v>
+        <v>342632.8959098075</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.578604410227835e-06</v>
+        <v>5.003983491988981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.215277777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>267252.3569794954</v>
+        <v>309932.4932125674</v>
       </c>
     </row>
     <row r="4">
@@ -22120,28 +22120,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>184.0924379607386</v>
+        <v>218.6622068641989</v>
       </c>
       <c r="AB4" t="n">
-        <v>251.8833952029375</v>
+        <v>299.1832781271952</v>
       </c>
       <c r="AC4" t="n">
-        <v>227.8439974854079</v>
+        <v>270.6296459691922</v>
       </c>
       <c r="AD4" t="n">
-        <v>184092.4379607386</v>
+        <v>218662.2068641988</v>
       </c>
       <c r="AE4" t="n">
-        <v>251883.3952029375</v>
+        <v>299183.2781271952</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.782838786729092e-06</v>
+        <v>5.400316269694366e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.76099537037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>227843.9974854079</v>
+        <v>270629.6459691921</v>
       </c>
     </row>
     <row r="5">
@@ -22226,28 +22226,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>173.5766446654048</v>
+        <v>208.146413568865</v>
       </c>
       <c r="AB5" t="n">
-        <v>237.495222892211</v>
+        <v>284.7951058164687</v>
       </c>
       <c r="AC5" t="n">
-        <v>214.8290121460859</v>
+        <v>257.6146606298701</v>
       </c>
       <c r="AD5" t="n">
-        <v>173576.6446654048</v>
+        <v>208146.413568865</v>
       </c>
       <c r="AE5" t="n">
-        <v>237495.222892211</v>
+        <v>284795.1058164687</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.879167395553526e-06</v>
+        <v>5.587249467532627e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.56712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>214829.0121460859</v>
+        <v>257614.6606298701</v>
       </c>
     </row>
     <row r="6">
@@ -22332,28 +22332,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>166.5375169054774</v>
+        <v>200.9366936083455</v>
       </c>
       <c r="AB6" t="n">
-        <v>227.8639777466836</v>
+        <v>274.9304488960944</v>
       </c>
       <c r="AC6" t="n">
-        <v>206.1169595197071</v>
+        <v>248.6914727208402</v>
       </c>
       <c r="AD6" t="n">
-        <v>166537.5169054774</v>
+        <v>200936.6936083455</v>
       </c>
       <c r="AE6" t="n">
-        <v>227863.9777466836</v>
+        <v>274930.4488960944</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.931513879359788e-06</v>
+        <v>5.688831912591371e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.46875</v>
       </c>
       <c r="AH6" t="n">
-        <v>206116.9595197071</v>
+        <v>248691.4727208402</v>
       </c>
     </row>
     <row r="7">
@@ -22438,28 +22438,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>167.1336898277139</v>
+        <v>201.5328665305819</v>
       </c>
       <c r="AB7" t="n">
-        <v>228.6796878401801</v>
+        <v>275.7461589895909</v>
       </c>
       <c r="AC7" t="n">
-        <v>206.8548193867369</v>
+        <v>249.4293325878701</v>
       </c>
       <c r="AD7" t="n">
-        <v>167133.6898277139</v>
+        <v>201532.8665305819</v>
       </c>
       <c r="AE7" t="n">
-        <v>228679.6878401801</v>
+        <v>275746.1589895909</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.930350624164093e-06</v>
+        <v>5.686574524923397e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.46875</v>
       </c>
       <c r="AH7" t="n">
-        <v>206854.8193867369</v>
+        <v>249429.33258787</v>
       </c>
     </row>
   </sheetData>
@@ -22735,28 +22735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>391.7727827708533</v>
+        <v>451.6215954369039</v>
       </c>
       <c r="AB2" t="n">
-        <v>536.0408051824292</v>
+        <v>617.9285910153885</v>
       </c>
       <c r="AC2" t="n">
-        <v>484.8818230738125</v>
+        <v>558.9543535571036</v>
       </c>
       <c r="AD2" t="n">
-        <v>391772.7827708533</v>
+        <v>451621.5954369039</v>
       </c>
       <c r="AE2" t="n">
-        <v>536040.8051824291</v>
+        <v>617928.5910153885</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.723273374630219e-06</v>
+        <v>3.233536769019725e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.96412037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>484881.8230738125</v>
+        <v>558954.3535571035</v>
       </c>
     </row>
     <row r="3">
@@ -22841,28 +22841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>256.2142085889615</v>
+        <v>304.0761905508909</v>
       </c>
       <c r="AB3" t="n">
-        <v>350.5635835643834</v>
+        <v>416.0504588064813</v>
       </c>
       <c r="AC3" t="n">
-        <v>317.106287168183</v>
+        <v>376.3431869484764</v>
       </c>
       <c r="AD3" t="n">
-        <v>256214.2085889615</v>
+        <v>304076.1905508909</v>
       </c>
       <c r="AE3" t="n">
-        <v>350563.5835643833</v>
+        <v>416050.4588064813</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.314707800070154e-06</v>
+        <v>4.343299729022777e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.672453703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>317106.287168183</v>
+        <v>376343.1869484764</v>
       </c>
     </row>
     <row r="4">
@@ -22947,28 +22947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>229.7640376172621</v>
+        <v>265.6392783836179</v>
       </c>
       <c r="AB4" t="n">
-        <v>314.3732927417348</v>
+        <v>363.4593798623312</v>
       </c>
       <c r="AC4" t="n">
-        <v>284.3699469082443</v>
+        <v>328.7713267667131</v>
       </c>
       <c r="AD4" t="n">
-        <v>229764.0376172621</v>
+        <v>265639.2783836179</v>
       </c>
       <c r="AE4" t="n">
-        <v>314373.2927417348</v>
+        <v>363459.3798623312</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.535107867095559e-06</v>
+        <v>4.756856702114167e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH4" t="n">
-        <v>284369.9469082443</v>
+        <v>328771.3267667131</v>
       </c>
     </row>
     <row r="5">
@@ -23053,28 +23053,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>204.0092095413076</v>
+        <v>239.9697016536805</v>
       </c>
       <c r="AB5" t="n">
-        <v>279.1344007454074</v>
+        <v>328.3371325184762</v>
       </c>
       <c r="AC5" t="n">
-        <v>252.4942053059396</v>
+        <v>297.0010974150702</v>
       </c>
       <c r="AD5" t="n">
-        <v>204009.2095413076</v>
+        <v>239969.7016536805</v>
       </c>
       <c r="AE5" t="n">
-        <v>279134.4007454074</v>
+        <v>328337.1325184762</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.658946122241827e-06</v>
+        <v>4.989225841753795e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.810185185185184</v>
       </c>
       <c r="AH5" t="n">
-        <v>252494.2053059396</v>
+        <v>297001.0974150702</v>
       </c>
     </row>
     <row r="6">
@@ -23159,28 +23159,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>194.7910108018121</v>
+        <v>230.751502914185</v>
       </c>
       <c r="AB6" t="n">
-        <v>266.5216545518095</v>
+        <v>315.7243863248784</v>
       </c>
       <c r="AC6" t="n">
-        <v>241.0852019069543</v>
+        <v>285.5920940160848</v>
       </c>
       <c r="AD6" t="n">
-        <v>194791.0108018121</v>
+        <v>230751.502914185</v>
       </c>
       <c r="AE6" t="n">
-        <v>266521.6545518095</v>
+        <v>315724.3863248784</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.731861232815017e-06</v>
+        <v>5.126043188627818e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.653935185185184</v>
       </c>
       <c r="AH6" t="n">
-        <v>241085.2019069543</v>
+        <v>285592.0940160849</v>
       </c>
     </row>
     <row r="7">
@@ -23265,28 +23265,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>187.6494367395102</v>
+        <v>223.6099288518831</v>
       </c>
       <c r="AB7" t="n">
-        <v>256.7502378557614</v>
+        <v>305.9529696288303</v>
       </c>
       <c r="AC7" t="n">
-        <v>232.2463555061044</v>
+        <v>276.753247615235</v>
       </c>
       <c r="AD7" t="n">
-        <v>187649.4367395102</v>
+        <v>223609.9288518831</v>
       </c>
       <c r="AE7" t="n">
-        <v>256750.2378557614</v>
+        <v>305952.9696288303</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.785133033951213e-06</v>
+        <v>5.226001982317624e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.546875000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>232246.3555061044</v>
+        <v>276753.247615235</v>
       </c>
     </row>
     <row r="8">
@@ -23371,28 +23371,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>181.1296456671662</v>
+        <v>216.919545578947</v>
       </c>
       <c r="AB8" t="n">
-        <v>247.8295720777028</v>
+        <v>296.7988920759249</v>
       </c>
       <c r="AC8" t="n">
-        <v>224.1770655496679</v>
+        <v>268.4728223761475</v>
       </c>
       <c r="AD8" t="n">
-        <v>181129.6456671662</v>
+        <v>216919.5455789469</v>
       </c>
       <c r="AE8" t="n">
-        <v>247829.5720777028</v>
+        <v>296798.8920759248</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.822871674635873e-06</v>
+        <v>5.296814474440563e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.471643518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>224177.0655496679</v>
+        <v>268472.8223761475</v>
       </c>
     </row>
     <row r="9">
@@ -23477,28 +23477,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>181.8936410373389</v>
+        <v>217.6835409491196</v>
       </c>
       <c r="AB9" t="n">
-        <v>248.8749042482695</v>
+        <v>297.8442242464915</v>
       </c>
       <c r="AC9" t="n">
-        <v>225.1226326850089</v>
+        <v>269.4183895114885</v>
       </c>
       <c r="AD9" t="n">
-        <v>181893.6410373389</v>
+        <v>217683.5409491196</v>
       </c>
       <c r="AE9" t="n">
-        <v>248874.9042482695</v>
+        <v>297844.2242464915</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.818281118626141e-06</v>
+        <v>5.28820079081599e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.480324074074075</v>
       </c>
       <c r="AH9" t="n">
-        <v>225122.6326850089</v>
+        <v>269418.3895114885</v>
       </c>
     </row>
   </sheetData>
@@ -23774,28 +23774,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.9747905369972</v>
+        <v>155.5302215353586</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.7865572099661</v>
+        <v>212.8033106136953</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.2504366622598</v>
+        <v>192.4936613201073</v>
       </c>
       <c r="AD2" t="n">
-        <v>118974.7905369972</v>
+        <v>155530.2215353586</v>
       </c>
       <c r="AE2" t="n">
-        <v>162786.5572099661</v>
+        <v>212803.3106136953</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.973440863703699e-06</v>
+        <v>7.436349947088369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.675347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>147250.4366622598</v>
+        <v>192493.6613201073</v>
       </c>
     </row>
   </sheetData>
@@ -24071,28 +24071,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.0081244007188</v>
+        <v>247.1785714435183</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.1329160081807</v>
+        <v>338.2006261978167</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.4928622699501</v>
+        <v>305.923233101158</v>
       </c>
       <c r="AD2" t="n">
-        <v>204008.1244007188</v>
+        <v>247178.5714435182</v>
       </c>
       <c r="AE2" t="n">
-        <v>279132.9160081807</v>
+        <v>338200.6261978167</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.537286112640924e-06</v>
+        <v>5.224991320276937e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.704282407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>252492.86226995</v>
+        <v>305923.2331011579</v>
       </c>
     </row>
     <row r="3">
@@ -24177,28 +24177,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.0037299878923</v>
+        <v>187.4455709109206</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.0829416512844</v>
+        <v>256.4712996351596</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.8420433604245</v>
+        <v>231.9940387577846</v>
       </c>
       <c r="AD3" t="n">
-        <v>155003.7299878923</v>
+        <v>187445.5709109206</v>
       </c>
       <c r="AE3" t="n">
-        <v>212082.9416512844</v>
+        <v>256471.2996351596</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.993127551876738e-06</v>
+        <v>6.163698055620483e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.68287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>191842.0433604245</v>
+        <v>231994.0387577846</v>
       </c>
     </row>
     <row r="4">
@@ -24283,28 +24283,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.9759396669956</v>
+        <v>179.417780590024</v>
       </c>
       <c r="AB4" t="n">
-        <v>201.0989647731256</v>
+        <v>245.4873227570008</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.9063618194053</v>
+        <v>222.0583572167654</v>
       </c>
       <c r="AD4" t="n">
-        <v>146975.9396669956</v>
+        <v>179417.780590024</v>
       </c>
       <c r="AE4" t="n">
-        <v>201098.9647731256</v>
+        <v>245487.3227570008</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.085659719191307e-06</v>
+        <v>6.35424801711529e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.512152777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>181906.3618194053</v>
+        <v>222058.3572167653</v>
       </c>
     </row>
     <row r="5">
@@ -24389,28 +24389,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>147.5785428654404</v>
+        <v>180.0203837884687</v>
       </c>
       <c r="AB5" t="n">
-        <v>201.9234730542141</v>
+        <v>246.3118310380894</v>
       </c>
       <c r="AC5" t="n">
-        <v>182.6521801873517</v>
+        <v>222.8041755847117</v>
       </c>
       <c r="AD5" t="n">
-        <v>147578.5428654404</v>
+        <v>180020.3837884687</v>
       </c>
       <c r="AE5" t="n">
-        <v>201923.4730542141</v>
+        <v>246311.8310380894</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.085600931283229e-06</v>
+        <v>6.354126956148648e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.512152777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>182652.1801873517</v>
+        <v>222804.1755847117</v>
       </c>
     </row>
   </sheetData>
@@ -24686,28 +24686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.8852095475553</v>
+        <v>307.7598466620573</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.6911413798886</v>
+        <v>421.0905996092173</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.3627236762788</v>
+        <v>380.9023037868812</v>
       </c>
       <c r="AD2" t="n">
-        <v>262885.2095475553</v>
+        <v>307759.8466620573</v>
       </c>
       <c r="AE2" t="n">
-        <v>359691.1413798886</v>
+        <v>421090.5996092174</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.218895861633143e-06</v>
+        <v>4.396041226768249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.381365740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>325362.7236762788</v>
+        <v>380902.3037868813</v>
       </c>
     </row>
     <row r="3">
@@ -24792,28 +24792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.4225119901616</v>
+        <v>230.1211826304612</v>
       </c>
       <c r="AB3" t="n">
-        <v>268.7539464544607</v>
+        <v>314.8619543049195</v>
       </c>
       <c r="AC3" t="n">
-        <v>243.1044470034585</v>
+        <v>284.8119712976796</v>
       </c>
       <c r="AD3" t="n">
-        <v>196422.5119901616</v>
+        <v>230121.1826304612</v>
       </c>
       <c r="AE3" t="n">
-        <v>268753.9464544607</v>
+        <v>314861.9543049196</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.72897645508359e-06</v>
+        <v>5.406604794241031e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.001157407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>243104.4470034585</v>
+        <v>284811.9712976796</v>
       </c>
     </row>
     <row r="4">
@@ -24898,28 +24898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.8801004047074</v>
+        <v>201.6640223910276</v>
       </c>
       <c r="AB4" t="n">
-        <v>229.7009597209328</v>
+        <v>275.9256122240408</v>
       </c>
       <c r="AC4" t="n">
-        <v>207.778622512555</v>
+        <v>249.5916590574884</v>
       </c>
       <c r="AD4" t="n">
-        <v>167880.1004047074</v>
+        <v>201664.0223910276</v>
       </c>
       <c r="AE4" t="n">
-        <v>229700.9597209328</v>
+        <v>275925.6122240408</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.914341961469544e-06</v>
+        <v>5.77384799036546e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.619212962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>207778.622512555</v>
+        <v>249591.6590574883</v>
       </c>
     </row>
     <row r="5">
@@ -25004,28 +25004,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>158.8200195440062</v>
+        <v>192.4333493297342</v>
       </c>
       <c r="AB5" t="n">
-        <v>217.3045573847696</v>
+        <v>263.2957981130309</v>
       </c>
       <c r="AC5" t="n">
-        <v>196.5653154168913</v>
+        <v>238.1672166791736</v>
       </c>
       <c r="AD5" t="n">
-        <v>158820.0195440062</v>
+        <v>192433.3493297342</v>
       </c>
       <c r="AE5" t="n">
-        <v>217304.5573847696</v>
+        <v>263295.7981130308</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.992902976084415e-06</v>
+        <v>5.929491824325982e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.471643518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>196565.3154168913</v>
+        <v>238167.2166791736</v>
       </c>
     </row>
     <row r="6">
@@ -25110,28 +25110,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>159.3175485070742</v>
+        <v>192.9308782928022</v>
       </c>
       <c r="AB6" t="n">
-        <v>217.9852984614676</v>
+        <v>263.9765391897288</v>
       </c>
       <c r="AC6" t="n">
-        <v>197.1810875206556</v>
+        <v>238.7829887829379</v>
       </c>
       <c r="AD6" t="n">
-        <v>159317.5485070742</v>
+        <v>192930.8782928022</v>
       </c>
       <c r="AE6" t="n">
-        <v>217985.2984614676</v>
+        <v>263976.5391897289</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.993242577012145e-06</v>
+        <v>5.930164636288347e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.471643518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>197181.0875206556</v>
+        <v>238782.9887829379</v>
       </c>
     </row>
   </sheetData>
